--- a/biology/Botanique/Senecio_(genre)/Senecio_(genre).xlsx
+++ b/biology/Botanique/Senecio_(genre)/Senecio_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senecio est un genre de plantes de la vaste famille des Asteraceae (Composées). C'est le genre des séneçons véritables.
 </t>
@@ -511,14 +523,16 @@
           <t>Un genre d'Asteroideae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les espèces d'Asteraceae, ce qu'on appelle improprement « fleur » est en fait un capitule lui-même formé de nombreuses fleurs (ou fleurons). À l'intérieur de cette famille, Senecio est souvent placé dans la sous-famille des Asteroideae, qui regroupe les caractéristiques suivantes :
 Capitules hétérogames.
 Fleurons à lobes généralement courts, larges et jaunes.
 Anthères basifixes, c'est-à-dire fixées au filet par leur base.
 Bras stigmatiques généralement à deux surfaces stigmatiques.
-Canaux laticifères absents[1]
+Canaux laticifères absents
 Le nom Senecio signifie en latin vieillard (dérivé de senex). Il évoque les aigrettes blanches surmontant les akènes, leur donnant ainsi l'air de petites têtes de vieillards.
 			Aigrettes de séneçon commun
 </t>
@@ -549,7 +563,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles alternes.
 Capitules groupés en corymbes.
@@ -585,9 +601,11 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le séneçon négligé (Senecio squalidus), est un hybride simple et fertile de deux espèces  (Senecio aethensis et Senecio chrysanthemifolius) possédant le même nombre de chromosomes (2n=20) ou de Senecio cambrensis, hybride triploïde (2n=60) entre Senecio squalidus (2n=20) et Senecio vulgaris (2n=40) dans lequel l’hybridation est allopolyploïde[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le séneçon négligé (Senecio squalidus), est un hybride simple et fertile de deux espèces  (Senecio aethensis et Senecio chrysanthemifolius) possédant le même nombre de chromosomes (2n=20) ou de Senecio cambrensis, hybride triploïde (2n=60) entre Senecio squalidus (2n=20) et Senecio vulgaris (2n=40) dans lequel l’hybridation est allopolyploïde.
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des espèces de Senecio (juin 2018) d'après The Plant List[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des espèces de Senecio (juin 2018) d'après The Plant List.
 Quelques espèces :
 Senecio adenotrichius DC.
 Senecio alboranicus
@@ -680,12 +700,48 @@
           <t>Espèces retirées de ce genre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour Senecio aureus L., voir Packera aurea (L.) Á.Löve &amp; D.Löve
-Pour Senecio kilimanjari Mildbr., voir Dendrosenecio kilimanjari (Milbr.) E.B.Knox
-Cas du genre Jacobaea
-Des travaux depuis 2000 tendent à prouver que certaines espèces font partie d'un genre distinct à Senecio, le genre Jacobaea.
+Pour Senecio kilimanjari Mildbr., voir Dendrosenecio kilimanjari (Milbr.) E.B.Knox</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Senecio_(genre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Senecio_(genre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces retirées de ce genre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cas du genre Jacobaea</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Des travaux depuis 2000 tendent à prouver que certaines espèces font partie d'un genre distinct à Senecio, le genre Jacobaea.
 Pour Senecio adonidifolius Loisel., voir Jacobaea adonidifolia (Loisel.) Pelser &amp; Veldkamp
 Pour Senecio alpinus (L.) Scop., voir Jacobaea alpina (L.) Moench
 Pour Senecio aquaticus Hill, voir Jacobaea aquatica (Hill) G.Gaertn. et al.
